--- a/regression/Plots_PM1_2022-06-10/Regression_parameters.xlsx
+++ b/regression/Plots_PM1_2022-06-10/Regression_parameters.xlsx
@@ -3322,61 +3322,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR15" t="n">
-        <v>4.093518750006746</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH15" t="n">
-        <v>2.026058614073074</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3497,61 +3442,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR16" t="n">
-        <v>-372.0786852817461</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>274.5782511902853</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH16" t="n">
-        <v>2.026058614073083</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3672,61 +3562,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR17" t="n">
-        <v>0.6562540189132845</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0.8373765894453414</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>1.030772398682702</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH17" t="n">
-        <v>2.026058614079722</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3847,61 +3682,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR18" t="n">
-        <v>13.89540465231654</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>-19.51339169799615</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH18" t="n">
-        <v>0.3699006680377432</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4022,61 +3802,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR19" t="n">
-        <v>6.76281572297759</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>5.20626929363227</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>-348.6534101839248</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>240.2481886752571</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH19" t="n">
-        <v>0.3699006680377434</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4197,61 +3922,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR20" t="n">
-        <v>3.746402726943312</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1.585699153614092</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1.354999969287055</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>-15.43433228876938</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-1.876728346942708</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0.5666713709740144</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH20" t="n">
-        <v>0.3699006680813515</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4372,61 +4042,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR21" t="n">
-        <v>13.42279189223871</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>10.06768650728448</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>-7.754811832923782</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>-5.383174608685948</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0.2162160822185423</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0.4560218766454309</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.3679170632022033</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4547,61 +4162,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR22" t="n">
-        <v>10.77782158768143</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>2.396607885531568</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>1.405360833470311</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>-10.89563046601275</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>-1.07867545784189</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0.997662640692528</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0.5924206225853386</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>-0.8498186511047924</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0.7655433423052206</v>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH22" t="n">
-        <v>0.3679170633023958</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4722,61 +4282,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR23" t="n">
-        <v>4.093518750006746</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH23" t="n">
-        <v>2.026058614073074</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4897,61 +4402,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR24" t="n">
-        <v>1.949305599011939</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>2.084492442510145</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH24" t="n">
-        <v>0.307321197702669</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5072,61 +4522,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR25" t="n">
-        <v>2.247365582023976</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0.4367655023079008</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>1.125376522761762</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC25" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH25" t="n">
-        <v>0.3073211977118362</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5247,61 +4642,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR26" t="n">
-        <v>13.89540465231654</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>-19.51339169799615</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH26" t="n">
-        <v>0.3699006680377432</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5422,61 +4762,6 @@
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR27" t="n">
-        <v>12.64553999686113</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>-3.818037135018729</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>-19.81548893071745</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>11.02626929533731</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH27" t="n">
-        <v>6.989177578900945e-10</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5596,61 +4881,6 @@
         <is>
           <t>A_FC1.4_OCR1_DR83_undrained</t>
         </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR28" t="n">
-        <v>3.512866049200174</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>11.71828601546488</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>-0.9519586423410337</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>-15.67607807632455</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0.6439705595458636</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>1.728817868830267</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB28" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC28" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH28" t="n">
-        <v>6.989177587149628e-10</v>
       </c>
     </row>
     <row r="29">
